--- a/论文总结.xlsx
+++ b/论文总结.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86132\Desktop\科研\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8A3F1A-9CCA-4BCC-8733-ECA4A9C87FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C959C3C2-E1EE-42CF-ADC8-DF38D1FF6BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="推荐系统" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="94">
   <si>
     <t>题目</t>
   </si>
@@ -232,84 +232,156 @@
     <t>https://github.com/karin0018/GenAL</t>
   </si>
   <si>
+    <t>1）知识概念的名称在不同场景中可能会有歧义，之前的方法简单地使用概念名称，没有引入人类知识系统中的结构关系，导致LLM生成的概念解释偏离教育场景；2）现有的文本编码方法生成的文本嵌入不平滑且各向异性（语义相近的文本生成的嵌入在新的向量空间中并不靠近），适配器用于将文本嵌入映射到用于推荐模型输入的空间，现有的适配器结构简单、缺乏针对知识结构的适配目标，无法将文本嵌入转换为符合概念依赖关系的推荐空间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LLM+知识图谱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKarREC：1）结构与知识感知的概念解释：生成包含语义和结构信息的概念文本（增强文本）。一个概念的增强文本包括概念名称、LLM基于知识图谱的前驱/后继概念生成的概念解释文本、前驱概念名称、后继概念名称。2）基于图的文本适配，目的是将解释文本编码的嵌入转换为符合知识结构的推荐空间表示。首先用BART模型编码文本生成初始文本嵌入，然后将文本嵌入作为知识图谱节点（知识概念）的初始编码，通过图卷积网络居合邻居信息，捕捉概念间依赖关系（也解决不平滑问题），然后对知识图进行两次随机边丢弃生成两个视图，对比学习两个视图中同一个节点的编码，解决各向异性问题（顺序是先随即丢边，然后图卷积，最后对比学习）。最后用门控递归单元处理历史交互数据生成知识状态，将对比学习后的概念嵌入、知识状态、当前概念编码、回答对错编码组成一个单元，学习者的历史交互序列就是多个上述单元，序列进行transformer编码后用于预测下一个推荐的知识概念。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）通过LLM利用用人类知识体系构建的知识图谱的前驱/后继概念生成概念语义解释，填补了概念推荐中“语义-结构”融合的空白，用包含概念名称、概念语义解释、前驱概念名称、后继概念名称的增强文本描述概念，解决概念歧义问题；2）设计图神经网络适配器，通过知识图谱上的对比学习，将文本嵌入语义空间转换为知识结构空间，使嵌入具有平滑分布和聚类特性，提升推荐适配性；3）整合增强文本生成、图适配器和知识追踪模型，实现”概念语义、结构关系、学习者状态“的联合建模学习者的交互序列。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>KDD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Way to Specialist: Closing Loop Between Specialized LLM and Evolving Domain Knowledge Graph</t>
+  </si>
+  <si>
+    <t>目前使用LLM协同KG用于解答特定领域问题的模型存在的问题：1、知识源局限：通用KG知识粗糙，领域KG静态且不完整，无法满足专业领域细粒度知识需求；2、单向增强模式：现有“LLM←KG”范式仅用KG增强LLM，缺乏LLM对KG的反向优化，无法动态更新知识；3、DKG补全困难：难以整合新知识（DKG和LLM固有知识中均不存在的实体/关系）和激活隐藏连接（现有DKG中未充分关联的知识依赖）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者提出的WTS框架通过两个模块实现LLM和DKG的双向增强：1、DKG增强LLM推理：1）实体提取：LLM提取问题中的主题实体；2）迭代检索：包括精确匹配：检索DKG中以实体为主体/客体的三元组；相似性检索：通过向量数据库计算问题与三元组嵌入的余弦相似度，过滤低相关三元组；2）剪枝模块：LLM对检索三元组评分语义相关性（0-1分），保留Top-K高相关三元组；3）推理模块：基于检索知识生成答案，动态判断是否需继续检索（深度修剪）。2、LLM驱动DKG增强：1）知识生成：LLM从问题、答案及检索知识中提取领域知识，生成新三元组；2）冗余检查：通过语义相似度阈值（如余弦距离&lt;0.5）过滤重复三元组，确保DKG简洁性；3）动态更新：将新三元组整合到DKG，用于后续问题推理，形成“检索-推理-更新”闭环。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提出Way-to-Specialist（WTS）框架，核心是LLM和KG双向增强范式，具体创新点：1）双向增强范式：通过DKG-Augmented LLM（DKG增强LLM推理）和LLM-Assisted DKG Evolution（LLM驱动DKG演化）实现双向提升，支持从空/不完整DKG启动并逐步完善；2）交互式知识检索机制：结合精确匹配（实体级粗筛）和语义相似性检索（问题与三元组嵌入余弦相似度），并通过LLM评分修剪低相关知识，提升检索质量；3）LLM驱动的DKG进化机制：通过LLM从问答数据中生成知识三元组，经冗余检查（语义相似度阈值过滤）后更新DKG，整合新知识并激活隐藏连接。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/PlayerDza/KCD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者提出了KCD框架，这是一个与CDM无关的框架，用于增强CDM生成的行为表示。KCD框架分为LLM诊断和认知水平对齐两个阶段。1、LLM诊断：1）协作信息收集：LLM提取学生的跨习题表现和习题的跨学生响应，模拟老师综合多方信息的诊断逻辑；2）诊断生成：将收集的协作信息和响应日志输入LLM，生成文本诊断，实现学生认知状态和练习属性的细粒度建模。2、认知水平对齐（两种方法都是独立存在，并非一起使用）：1）行为空间对齐：先用文本嵌入模型将文本诊断转化为语义向量，之后通过MLP映射到CDM行为空间，采用全局+局部对比学习（InfoNEC损失）优化映射，最大化语义向量与行为向量的互信息；2）语义空间对齐：先用MLP将CDM行为向量映射到LLM语义空间，采用动态掩码策略（高频样本提高掩码率，低频降低），进行掩码重构（设计一个可学习的向量，学习行为序列被掩码位置的数值），优化映射，在行为向量中融入语义信息。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Junyi、ASSIST12、ASSIST09</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comprehending Knowledge Graphs with Large Language Models for Recommender Systems</t>
+  </si>
+  <si>
+    <t>（1）KG中信息缺失或范围有限：KG中有些项目的关键属性缺失导致与其它项目的关联断裂（这两个项目通过同一个属性关联）；（2）项目和用户的语义信息未被充分利用：现有方法将项目和用户用ID表示，无法发掘有语义相似性的实体；（3）全局高阶关系捕捉困难：KG中距离较远但语义相关的项目难以通过传统GNN一层一层传播捕捉。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1）阶段1：LLM理解KG，分为局部KG理解和全局KG利用。局部KG理解：对每个项目和用户，提取一跳属性三元组，再随机地提取部分二跳关系。然后通过提示模板将得到的一跳关系和二跳关系融合进提示词中输入LLM（用了deepseek），输出特定项目或用户的文本描述。最后用文本嵌入模型转换为向量。全局KG利用：基于上面得到的项目子图语义嵌入，计算各个项目两两之间的余弦相似度，保留相似度前k的项目，得到项目-项目关系图，项目之间的边的权值就是相似度。（2）阶段2：语义嵌入融合到推荐模型，分为跨模态表示对齐与融合、检索增强项目表示和用户-项目建模。跨模态表示对齐与融合：通过适配器（线性层+激活函数）将项目和用户的文本嵌入映射到它们的ID嵌入的维度上，再将ID嵌入和转换后的语义文本嵌入取平均，作为融合表示。检索增强项目表示（只对项目不对用户）：对项目和它的每一个邻居分别通过特征提取，然后输入计算注意力计算函数得到注意力分数，最后计算注意力权重并加权求和。用户-项目建模：使用LightGCN作为基础推荐模型，融合项目和用户的表示，通过多层传播聚合交互图信息，最终通过内积预测交互概率。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1）LLM驱动的KG理解：分为局部和全局KG信息。局部KG理解：提取项目中心子图，通过提示工程引导LLM生成结构化描述，转换为语义嵌入。全局KG利用：基于语义嵌入检索全局范围内的相似项目，构建语义关联的项目-项目图，突破传统GNN的传播限制。（2）检索增强的表示学习：设计注意力机制聚合检索到的语义邻居信息，加权不同邻居对目标项目的贡献，增强项目表示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MovieLens、Last-FM、MIND、Funds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIGIR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/ziqiangcui/CoLaKG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Learning Structure and Knowledge Aware Representation with Large Language Models for Concept Recommendation</t>
-  </si>
-  <si>
-    <t>1）知识概念的名称在不同场景中可能会有歧义，之前的方法简单地使用概念名称，没有引入人类知识系统中的结构关系，导致LLM生成的概念解释偏离教育场景；2）现有的文本编码方法生成的文本嵌入不平滑且各向异性（语义相近的文本生成的嵌入在新的向量空间中并不靠近），适配器用于将文本嵌入映射到用于推荐模型输入的空间，现有的适配器结构简单、缺乏针对知识结构的适配目标，无法将文本嵌入转换为符合概念依赖关系的推荐空间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LLM+知识图谱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKarREC：1）结构与知识感知的概念解释：生成包含语义和结构信息的概念文本（增强文本）。一个概念的增强文本包括概念名称、LLM基于知识图谱的前驱/后继概念生成的概念解释文本、前驱概念名称、后继概念名称。2）基于图的文本适配，目的是将解释文本编码的嵌入转换为符合知识结构的推荐空间表示。首先用BART模型编码文本生成初始文本嵌入，然后将文本嵌入作为知识图谱节点（知识概念）的初始编码，通过图卷积网络居合邻居信息，捕捉概念间依赖关系（也解决不平滑问题），然后对知识图进行两次随机边丢弃生成两个视图，对比学习两个视图中同一个节点的编码，解决各向异性问题（顺序是先随即丢边，然后图卷积，最后对比学习）。最后用门控递归单元处理历史交互数据生成知识状态，将对比学习后的概念嵌入、知识状态、当前概念编码、回答对错编码组成一个单元，学习者的历史交互序列就是多个上述单元，序列进行transformer编码后用于预测下一个推荐的知识概念。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1）通过LLM利用用人类知识体系构建的知识图谱的前驱/后继概念生成概念语义解释，填补了概念推荐中“语义-结构”融合的空白，用包含概念名称、概念语义解释、前驱概念名称、后继概念名称的增强文本描述概念，解决概念歧义问题；2）设计图神经网络适配器，通过知识图谱上的对比学习，将文本嵌入语义空间转换为知识结构空间，使嵌入具有平滑分布和聚类特性，提升推荐适配性；3）整合增强文本生成、图适配器和知识追踪模型，实现”概念语义、结构关系、学习者状态“的联合建模学习者的交互序列。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>KDD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Way to Specialist: Closing Loop Between Specialized LLM and Evolving Domain Knowledge Graph</t>
-  </si>
-  <si>
-    <t>目前使用LLM协同KG用于解答特定领域问题的模型存在的问题：1、知识源局限：通用KG知识粗糙，领域KG静态且不完整，无法满足专业领域细粒度知识需求；2、单向增强模式：现有“LLM←KG”范式仅用KG增强LLM，缺乏LLM对KG的反向优化，无法动态更新知识；3、DKG补全困难：难以整合新知识（DKG和LLM固有知识中均不存在的实体/关系）和激活隐藏连接（现有DKG中未充分关联的知识依赖）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作者提出的WTS框架通过两个模块实现LLM和DKG的双向增强：1、DKG增强LLM推理：1）实体提取：LLM提取问题中的主题实体；2）迭代检索：包括精确匹配：检索DKG中以实体为主体/客体的三元组；相似性检索：通过向量数据库计算问题与三元组嵌入的余弦相似度，过滤低相关三元组；2）剪枝模块：LLM对检索三元组评分语义相关性（0-1分），保留Top-K高相关三元组；3）推理模块：基于检索知识生成答案，动态判断是否需继续检索（深度修剪）。2、LLM驱动DKG增强：1）知识生成：LLM从问题、答案及检索知识中提取领域知识，生成新三元组；2）冗余检查：通过语义相似度阈值（如余弦距离&lt;0.5）过滤重复三元组，确保DKG简洁性；3）动态更新：将新三元组整合到DKG，用于后续问题推理，形成“检索-推理-更新”闭环。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提出Way-to-Specialist（WTS）框架，核心是LLM和KG双向增强范式，具体创新点：1）双向增强范式：通过DKG-Augmented LLM（DKG增强LLM推理）和LLM-Assisted DKG Evolution（LLM驱动DKG演化）实现双向提升，支持从空/不完整DKG启动并逐步完善；2）交互式知识检索机制：结合精确匹配（实体级粗筛）和语义相似性检索（问题与三元组嵌入余弦相似度），并通过LLM评分修剪低相关知识，提升检索质量；3）LLM驱动的DKG进化机制：通过LLM从问答数据中生成知识三元组，经冗余检查（语义相似度阈值过滤）后更新DKG，整合新知识并激活隐藏连接。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/PlayerDza/KCD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>作者提出了KCD框架，这是一个与CDM无关的框架，用于增强CDM生成的行为表示。KCD框架分为LLM诊断和认知水平对齐两个阶段。1、LLM诊断：1）协作信息收集：LLM提取学生的跨习题表现和习题的跨学生响应，模拟老师综合多方信息的诊断逻辑；2）诊断生成：将收集的协作信息和响应日志输入LLM，生成文本诊断，实现学生认知状态和练习属性的细粒度建模。2、认知水平对齐（两种方法都是独立存在，并非一起使用）：1）行为空间对齐：先用文本嵌入模型将文本诊断转化为语义向量，之后通过MLP映射到CDM行为空间，采用全局+局部对比学习（InfoNEC损失）优化映射，最大化语义向量与行为向量的互信息；2）语义空间对齐：先用MLP将CDM行为向量映射到LLM语义空间，采用动态掩码策略（高频样本提高掩码率，低频降低），进行掩码重构（设计一个可学习的向量，学习行为序列被掩码位置的数值），优化映射，在行为向量中融入语义信息。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Junyi、ASSIST12、ASSIST09</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comprehending Knowledge Graphs with Large Language Models for Recommender Systems</t>
-  </si>
-  <si>
-    <t>（1）KG中信息缺失或范围有限：KG中有些项目的关键属性缺失导致与其它项目的关联断裂（这两个项目通过同一个属性关联）；（2）项目和用户的语义信息未被充分利用：现有方法将项目和用户用ID表示，无法发掘有语义相似性的实体；（3）全局高阶关系捕捉困难：KG中距离较远但语义相关的项目难以通过传统GNN一层一层传播捕捉。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（1）阶段1：LLM理解KG，分为局部KG理解和全局KG利用。局部KG理解：对每个项目和用户，提取一跳属性三元组，再随机地提取部分二跳关系。然后通过提示模板将得到的一跳关系和二跳关系融合进提示词中输入LLM（用了deepseek），输出特定项目或用户的文本描述。最后用文本嵌入模型转换为向量。全局KG利用：基于上面得到的项目子图语义嵌入，计算各个项目两两之间的余弦相似度，保留相似度前k的项目，得到项目-项目关系图，项目之间的边的权值就是相似度。（2）阶段2：语义嵌入融合到推荐模型，分为跨模态表示对齐与融合、检索增强项目表示和用户-项目建模。跨模态表示对齐与融合：通过适配器（线性层+激活函数）将项目和用户的文本嵌入映射到它们的ID嵌入的维度上，再将ID嵌入和转换后的语义文本嵌入取平均，作为融合表示。检索增强项目表示（只对项目不对用户）：对项目和它的每一个邻居分别通过特征提取，然后输入计算注意力计算函数得到注意力分数，最后计算注意力权重并加权求和。用户-项目建模：使用LightGCN作为基础推荐模型，融合项目和用户的表示，通过多层传播聚合交互图信息，最终通过内积预测交互概率。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（1）LLM驱动的KG理解：分为局部和全局KG信息。局部KG理解：提取项目中心子图，通过提示工程引导LLM生成结构化描述，转换为语义嵌入。全局KG利用：基于语义嵌入检索全局范围内的相似项目，构建语义关联的项目-项目图，突破传统GNN的传播限制。（2）检索增强的表示学习：设计注意力机制聚合检索到的语义邻居信息，加权不同邻居对目标项目的贡献，增强项目表示。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MovieLens、Last-FM、MIND、Funds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>没有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/ziqiangcui/CoLaKG</t>
-  </si>
-  <si>
-    <t>SIGIR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoLLM: Integrating Collaborative Embeddings Into Large Language Models for Recommendation</t>
+  </si>
+  <si>
+    <t>现有的LLMRec方法因缺乏对协同信息的有效建模，导致暖启动场景性能不佳，且难以整合先进协同建模模型。难点在于之间将user和item的ID嵌入放进提示词会引入冗余和在整合协同信息进入LLM时要保持LLM在冷启动场景的先天优势（有世界信息），避免过度依赖协同信息。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般推荐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LLM+传统协作模型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）在LLMRec中显式建模协同信息，同时优化冷/暖启动场景性能；2）提出CoLLM框架，将协同信息作为独立模态，协同信息通过外部协作模型提取并通过MLP映射到LLM空间。提出了两步调优策略，先仅用文本信息微调LLM的LoRA模块以保留冷启动能力，再专门调优CIE模块的映射层，使协同信息可被LLM理解。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ML-1M、Amazon-Book</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/zyang1580/ CoLLM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TKDE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boosting Neural Cognitive Diagnosis with Student’s Affective State Modeling</t>
+  </si>
+  <si>
+    <t>认知诊断</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>传统CDM仅建模认知因素（如知识掌握程度、题目难度），未考虑情感状态对答题过程的主观影响（如分心导致失误，侥幸导致猜中），导致对学生真实能力的推断存在偏差。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神经网络+认知诊断模型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACD模型包括三个核心模块：1）学生与题目特征提取：学生特征包括知识掌握程度向量和情感特质向量，题目特征包括知识点关联向量、难度向量和区分度向量；2）情感感知模块：1、有监督模式（ACD）：输入学生情感特质和题目难度，通过全连接层预测情感分布；2、无监督模式（CACD）：针对无情感标签数据集，通过构建正负样本对进行对比学习（对同一道题，正确答题的学生对应相似情感，构成正样本，错误答题的学生对应不同的情感，构成负样本）；3）情感驱动的认知诊断：1、基础认知得分：使用NCD框架计算纯认知因素下的正确答题概率；2、动态调整猜测和失误概率：基于预测的情感状态来调整；3、最终预测：结合DINA模型，融合认知得分与情感参数预测学生的答题表现。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文提出情感感知认知诊断模型（ACD），首次将情感建模与认知诊断统一，核心贡献包括：1）情感感知模块设计：基于学生情感特质和题目难度联合预测情感分布，突破传统仅依赖答题记录的局限；2）情感驱动的主观参数估计：将预测的情感状态用于动态调整“猜测概率”（g）和“失误概率”（s），替代DINA模型中固定的题目级参数，提升个性化诊断能力；3）无监督扩展（CACD）：针对无情感标签数据集，提出对比学习策略，通过答题结果构建正负样本对（正确答题对应相似情感，错误答题对应不同情感），实现情感感知模块的无监督训练。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASSIST17、ASSIST12、junyi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/zeng-zhen/ACD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoLLM架构包括提示构建、混合编码和LLM预测三部分，核心是通过CIE模块融合协同信息和LLM。1、提示构建：在提示中引入&lt;userID&gt;和&lt;targetitemID&gt;作为协同信息的占位符，不携带语义，用于注入协作模型生成的协同嵌入。2、混合编码：文本编码和协作信息编码组成。文本编码：LLM内置的tokenizer将文本转化为token后查找相应的嵌入。协作信息编码：传统协作模型生成用户和物品的协同表示，MLP映射层再将它们映射到LLM的嵌入空间。3、LLM预测：使用Vicuna-7B作为LLM，作者提出了三种调优策略，最优的方法是：使用两步微调策略，先用纯文本的嵌入用LoRA方法微调LLM，使LLM具有推荐能力。然后冻结LLM的参数，用整个模型来推理，推理的损失来训练CIE中的传统协作模型和MLP层（CIE中可以训练两部分，也可以只训练MLP层，用预训练的协作模型）。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -670,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H1"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -819,6 +891,9 @@
       <c r="H8" s="1" t="s">
         <v>24</v>
       </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F9" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -846,10 +921,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F0426B4-DE7A-4261-862D-15126161B4BE}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -944,7 +1019,7 @@
         <v>44</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>45</v>
@@ -953,7 +1028,7 @@
         <v>46</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>47</v>
@@ -995,29 +1070,93 @@
       <c r="A5">
         <v>2024</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2025</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1025,6 +1164,8 @@
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" xr:uid="{9DEE3BFC-CDA3-4A5D-B185-E50BE4179600}"/>
     <hyperlink ref="I3" r:id="rId2" xr:uid="{C2DD2CF3-6CA9-4430-B675-92C9299BBD60}"/>
+    <hyperlink ref="I6" r:id="rId3" xr:uid="{9D92C2FD-66DE-43CE-A93B-F49415D1CE94}"/>
+    <hyperlink ref="I7" r:id="rId4" xr:uid="{FC278F0D-8FE1-4410-B6CD-2561FFA89A49}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1034,8 +1175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02CD0C2A-C92C-444F-938D-6666BE69A420}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1072,22 +1213,22 @@
         <v>2025</v>
       </c>
       <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L2" s="1"/>
     </row>
@@ -1096,29 +1237,32 @@
         <v>2025</v>
       </c>
       <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>74</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{3287D347-AB0F-4760-9ACB-4AE91B83E2BF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>